--- a/Gerencia/Processos (tabela)/Analise de desempenho.xlsx
+++ b/Gerencia/Processos (tabela)/Analise de desempenho.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\Games\Mobile\The Last Tool\Gerencia\Processos (tabela)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E689FD26-25C2-45C8-A3B2-572978790360}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE7D57D-4307-4E86-B9EF-C4DC7D14E768}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025" xr2:uid="{07EEF603-66A0-44F7-989B-6BF444A88DF7}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Pessoa</t>
   </si>
@@ -90,17 +90,29 @@
     <t>Programar mecânicas do inim, personagem prin e colisão de cen</t>
   </si>
   <si>
-    <t>Efeito sonoro de ataq e def, do disp da arma, e rugido do ini</t>
+    <t>Objetos do Cen, Ajustes do Inim, Review do Enredo, Anim de Ataq e Def, Sprite da Arma e munic, Amin do disp da arma</t>
   </si>
   <si>
-    <t>Objetos do Cen, Ajustes do Inim, Review do Enredo, Anim de Ataq e Def, Sprite da Arma e munic, Amin do disp da arma</t>
+    <t>Resultados</t>
+  </si>
+  <si>
+    <t>Dia (Atrasos)</t>
+  </si>
+  <si>
+    <t>Processo 1</t>
+  </si>
+  <si>
+    <t>Efeito sonoro de ataq e def, do disp da arma, e rugido do inimigo</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,8 +141,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +176,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -178,12 +208,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -236,11 +267,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Neutro" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Ruim" xfId="3" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -370,7 +415,7 @@
             </a:path>
             <a:tileRect/>
           </a:gradFill>
-          <a:ln>
+          <a:ln w="25400">
             <a:noFill/>
           </a:ln>
           <a:effectLst>
@@ -540,7 +585,7 @@
               </a:path>
               <a:tileRect/>
             </a:gradFill>
-            <a:ln>
+            <a:ln w="25400">
               <a:noFill/>
             </a:ln>
             <a:effectLst>
@@ -554,9 +599,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'tabela (desempenho)'!$H$2:$H$5</c:f>
+              <c:f>'tabela (desempenho)'!$H$2:$H$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Vitoria</c:v>
                 </c:pt>
@@ -566,15 +611,18 @@
                 <c:pt idx="2">
                   <c:v>Jonny</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>NULL</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'tabela (desempenho)'!$I$2:$I$5</c:f>
+              <c:f>'tabela (desempenho)'!$I$2:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>11</c:v>
                 </c:pt>
@@ -582,7 +630,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -590,7 +638,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AE89-4B87-B78E-F1957B89B12F}"/>
+              <c16:uniqueId val="{00000000-20D7-4A61-82BB-07C0612DBF03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -642,9 +690,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'tabela (desempenho)'!$H$2:$H$5</c:f>
+              <c:f>'tabela (desempenho)'!$H$2:$H$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Vitoria</c:v>
                 </c:pt>
@@ -654,23 +702,26 @@
                 <c:pt idx="2">
                   <c:v>Jonny</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>NULL</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'tabela (desempenho)'!$J$2:$J$5</c:f>
+              <c:f>'tabela (desempenho)'!$J$2:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -678,7 +729,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AE89-4B87-B78E-F1957B89B12F}"/>
+              <c16:uniqueId val="{00000001-20D7-4A61-82BB-07C0612DBF03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1734,35 +1785,36 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ACER" refreshedDate="45036.012007986108" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="3" xr:uid="{EF9B921C-9038-4968-B5F6-95C50D2DFADD}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ACER" refreshedDate="45062.095598842592" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="18" xr:uid="{35E01735-018B-48D8-ADB8-F78EC2E75EF7}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G4" sheet="tabela (desempenho)"/>
+    <worksheetSource ref="A1:G19" sheet="tabela (desempenho)"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="ID" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
     </cacheField>
     <cacheField name="Pessoa" numFmtId="0">
-      <sharedItems count="3">
+      <sharedItems containsBlank="1" count="4">
         <s v="Jonny"/>
         <s v="Francisvan"/>
         <s v="Vitoria"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Descricao do Processo" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Data Inicio" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-03-27T00:00:00" maxDate="2023-03-28T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-03-19T00:00:00" maxDate="2023-03-28T00:00:00"/>
     </cacheField>
     <cacheField name="Data finalizacao" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-04-03T00:00:00" maxDate="2023-04-10T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-03-29T00:00:00" maxDate="2023-04-10T00:00:00"/>
     </cacheField>
     <cacheField name="Atraso (dia)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="11"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="17"/>
     </cacheField>
     <cacheField name="Afirmacao" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1774,7 +1826,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="3">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="18">
   <r>
     <n v="1"/>
     <x v="0"/>
@@ -1802,19 +1854,155 @@
     <n v="11"/>
     <s v="S"/>
   </r>
+  <r>
+    <n v="4"/>
+    <x v="0"/>
+    <s v="Objetos do Cen, Ajustes do Inim, Review do Enredo, Anim de Ataq e Def, Sprite da Arma e munic, Amin do disp da arma"/>
+    <d v="2023-03-19T00:00:00"/>
+    <d v="2023-03-29T00:00:00"/>
+    <n v="17"/>
+    <s v="N"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="Programar mecânicas do inim, personagem prin e colisão de cen"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="2"/>
+    <s v="Efeito sonoro de ataq e def, do disp da arma, e rugido do inimigo"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9CFEF938-CCDE-4B39-822B-2F81FA8E1475}" name="Tabela dinâmica5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="H1:J5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{321F69AA-7155-440F-B649-5D2EDDF5D249}" name="Tabela dinâmica5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="H1:J6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="4">
+      <items count="5">
         <item x="2"/>
         <item x="0"/>
         <item x="1"/>
+        <item n="NULL" x="3"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -1836,7 +2024,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="5">
     <i>
       <x/>
     </i>
@@ -1845,6 +2033,9 @@
     </i>
     <i>
       <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -2194,10 +2385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D399C0E-89D3-421D-946F-3B08A9AF2082}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2211,11 +2402,12 @@
     <col min="7" max="7" width="10.85546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
@@ -2246,8 +2438,14 @@
       <c r="J1" t="s">
         <v>16</v>
       </c>
+      <c r="N1" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2276,10 +2474,16 @@
         <v>11</v>
       </c>
       <c r="J2" s="12">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="7">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2308,10 +2512,10 @@
         <v>5</v>
       </c>
       <c r="J3" s="12">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2337,45 +2541,41 @@
         <v>11</v>
       </c>
       <c r="I4" s="12">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J4" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="17">
+      <c r="C5" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="24">
         <v>45004</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="24">
         <v>45014</v>
       </c>
-      <c r="F5" s="18">
-        <v>0</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="F5" s="25">
+        <v>17</v>
+      </c>
+      <c r="G5" s="25" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="12">
-        <v>17</v>
-      </c>
-      <c r="J5" s="12">
-        <v>6</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -2389,8 +2589,17 @@
       <c r="E6" s="17"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="12">
+        <v>34</v>
+      </c>
+      <c r="J6" s="12">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -2398,14 +2607,14 @@
         <v>9</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2414,7 +2623,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -2423,7 +2632,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2432,7 +2641,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2441,7 +2650,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -2450,7 +2659,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2459,7 +2668,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -2468,7 +2677,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -2477,7 +2686,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>

--- a/Gerencia/Processos (tabela)/Analise de desempenho.xlsx
+++ b/Gerencia/Processos (tabela)/Analise de desempenho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\Games\Mobile\The Last Tool\Gerencia\Processos (tabela)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE7D57D-4307-4E86-B9EF-C4DC7D14E768}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC9F0A1-46AB-4737-86DC-22BAF95D0812}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025" xr2:uid="{07EEF603-66A0-44F7-989B-6BF444A88DF7}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1993,7 +1993,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{321F69AA-7155-440F-B649-5D2EDDF5D249}" name="Tabela dinâmica5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{321F69AA-7155-440F-B649-5D2EDDF5D249}" name="Tabela dinâmica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="H1:J6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
@@ -2387,8 +2387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D399C0E-89D3-421D-946F-3B08A9AF2082}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2564,7 +2564,7 @@
         <v>45014</v>
       </c>
       <c r="F5" s="25">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>8</v>

--- a/Gerencia/Processos (tabela)/Analise de desempenho.xlsx
+++ b/Gerencia/Processos (tabela)/Analise de desempenho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\Games\Mobile\The Last Tool\Gerencia\Processos (tabela)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC9F0A1-46AB-4737-86DC-22BAF95D0812}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5B2089-60B8-4D86-B898-D035C78D191B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025" xr2:uid="{07EEF603-66A0-44F7-989B-6BF444A88DF7}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Pessoa</t>
   </si>
@@ -107,12 +107,15 @@
   <si>
     <t>NULL</t>
   </si>
+  <si>
+    <t>Terminar o roteiro completamente, Review do Enredo, Procura codificação para próxima etapa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,19 +146,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,11 +172,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -208,13 +199,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -267,25 +257,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Neutro" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Ruim" xfId="3" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -630,7 +609,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1785,7 +1764,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ACER" refreshedDate="45062.095598842592" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="18" xr:uid="{35E01735-018B-48D8-ADB8-F78EC2E75EF7}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ACER" refreshedDate="45082.333330671296" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="18" xr:uid="{35E01735-018B-48D8-ADB8-F78EC2E75EF7}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G19" sheet="tabela (desempenho)"/>
   </cacheSource>
@@ -1805,13 +1784,13 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Data Inicio" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-03-19T00:00:00" maxDate="2023-03-28T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-03-19T00:00:00" maxDate="2023-06-08T00:00:00"/>
     </cacheField>
     <cacheField name="Data finalizacao" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-03-29T00:00:00" maxDate="2023-04-10T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-03-29T00:00:00" maxDate="2023-06-23T00:00:00"/>
     </cacheField>
     <cacheField name="Atraso (dia)" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="17"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="65"/>
     </cacheField>
     <cacheField name="Afirmacao" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -1860,26 +1839,26 @@
     <s v="Objetos do Cen, Ajustes do Inim, Review do Enredo, Anim de Ataq e Def, Sprite da Arma e munic, Amin do disp da arma"/>
     <d v="2023-03-19T00:00:00"/>
     <d v="2023-03-29T00:00:00"/>
-    <n v="17"/>
-    <s v="N"/>
+    <n v="65"/>
+    <s v="S"/>
   </r>
   <r>
     <n v="5"/>
     <x v="1"/>
     <s v="Programar mecânicas do inim, personagem prin e colisão de cen"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <d v="2023-06-07T00:00:00"/>
+    <d v="2023-06-22T00:00:00"/>
+    <n v="0"/>
+    <s v="N"/>
   </r>
   <r>
     <n v="6"/>
     <x v="2"/>
     <s v="Efeito sonoro de ataq e def, do disp da arma, e rugido do inimigo"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <d v="2023-06-07T00:00:00"/>
+    <d v="2023-06-15T00:00:00"/>
+    <n v="0"/>
+    <s v="N"/>
   </r>
   <r>
     <m/>
@@ -2387,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D399C0E-89D3-421D-946F-3B08A9AF2082}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,10 +2417,10 @@
       <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="22" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2541,33 +2520,33 @@
         <v>11</v>
       </c>
       <c r="I4" s="12">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="J4" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="10">
         <v>45004</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="10">
         <v>45014</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="5">
         <v>65</v>
       </c>
-      <c r="G5" s="25" t="s">
-        <v>8</v>
+      <c r="G5" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>25</v>
@@ -2585,15 +2564,23 @@
       <c r="C6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
+      <c r="D6" s="17">
+        <v>45084</v>
+      </c>
+      <c r="E6" s="17">
+        <v>45099</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>8</v>
+      </c>
       <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="12">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="J6" s="12">
         <v>21</v>
@@ -2609,19 +2596,41 @@
       <c r="C7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="D7" s="17">
+        <v>45084</v>
+      </c>
+      <c r="E7" s="17">
+        <v>45092</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="17">
+        <v>45093</v>
+      </c>
+      <c r="E8" s="17">
+        <v>45103</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>

--- a/Gerencia/Processos (tabela)/Analise de desempenho.xlsx
+++ b/Gerencia/Processos (tabela)/Analise de desempenho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\Games\Mobile\The Last Tool\Gerencia\Processos (tabela)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5B2089-60B8-4D86-B898-D035C78D191B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930683DE-FA5F-4A0A-BB5E-7B1ECFB9DBF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025" xr2:uid="{07EEF603-66A0-44F7-989B-6BF444A88DF7}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId2"/>
+    <pivotCache cacheId="3" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>Pessoa</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Terminar o roteiro completamente, Review do Enredo, Procura codificação para próxima etapa</t>
+  </si>
+  <si>
+    <t>Processo 2</t>
+  </si>
+  <si>
+    <t>Plataforma de vida e munição, efeito sonoros de HIT e andando em piso raso</t>
   </si>
 </sst>
 </file>
@@ -582,13 +588,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>Jonny</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Vitoria</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Francisvan</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Jonny</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>NULL</c:v>
@@ -603,13 +609,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -673,13 +679,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>Jonny</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Vitoria</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Francisvan</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Jonny</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>NULL</c:v>
@@ -694,13 +700,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1764,13 +1770,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ACER" refreshedDate="45082.333330671296" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="18" xr:uid="{35E01735-018B-48D8-ADB8-F78EC2E75EF7}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ACER" refreshedDate="45169.058026388891" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="18" xr:uid="{35E01735-018B-48D8-ADB8-F78EC2E75EF7}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G19" sheet="tabela (desempenho)"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="ID" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="8"/>
     </cacheField>
     <cacheField name="Pessoa" numFmtId="0">
       <sharedItems containsBlank="1" count="4">
@@ -1784,10 +1790,10 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Data Inicio" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-03-19T00:00:00" maxDate="2023-06-08T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-03-19T00:00:00" maxDate="2023-08-02T00:00:00"/>
     </cacheField>
     <cacheField name="Data finalizacao" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-03-29T00:00:00" maxDate="2023-06-23T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-03-29T00:00:00" maxDate="2023-08-08T00:00:00"/>
     </cacheField>
     <cacheField name="Atraso (dia)" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="65"/>
@@ -1848,8 +1854,8 @@
     <s v="Programar mecânicas do inim, personagem prin e colisão de cen"/>
     <d v="2023-06-07T00:00:00"/>
     <d v="2023-06-22T00:00:00"/>
-    <n v="0"/>
-    <s v="N"/>
+    <n v="20"/>
+    <s v="S"/>
   </r>
   <r>
     <n v="6"/>
@@ -1857,26 +1863,26 @@
     <s v="Efeito sonoro de ataq e def, do disp da arma, e rugido do inimigo"/>
     <d v="2023-06-07T00:00:00"/>
     <d v="2023-06-15T00:00:00"/>
+    <n v="20"/>
+    <s v="S"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="0"/>
+    <s v="Terminar o roteiro completamente, Review do Enredo, Procura codificação para próxima etapa"/>
+    <d v="2023-06-16T00:00:00"/>
+    <d v="2023-06-26T00:00:00"/>
+    <n v="20"/>
+    <s v="S"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="0"/>
+    <s v="Plataforma de vida e munição, efeito sonoros de HIT e andando em piso raso"/>
+    <d v="2023-08-01T00:00:00"/>
+    <d v="2023-08-07T00:00:00"/>
     <n v="0"/>
     <s v="N"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
   </r>
   <r>
     <m/>
@@ -1972,7 +1978,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{321F69AA-7155-440F-B649-5D2EDDF5D249}" name="Tabela dinâmica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{321F69AA-7155-440F-B649-5D2EDDF5D249}" name="Tabela dinâmica5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="H1:J6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
@@ -2005,13 +2011,13 @@
   </rowFields>
   <rowItems count="5">
     <i>
+      <x v="1"/>
+    </i>
+    <i>
       <x/>
     </i>
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i>
       <x v="3"/>
@@ -2366,8 +2372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D399C0E-89D3-421D-946F-3B08A9AF2082}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2447,13 +2453,13 @@
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I2" s="12">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="J2" s="12">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>23</v>
@@ -2485,13 +2491,19 @@
         <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" s="12">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="J3" s="12">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="7">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -2517,13 +2529,13 @@
         <v>7</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="12">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="J4" s="12">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -2555,91 +2567,105 @@
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="10">
         <v>45084</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="10">
         <v>45099</v>
       </c>
-      <c r="F6" s="18">
-        <v>0</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>8</v>
+      <c r="F6" s="5">
+        <v>20</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="12">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="J6" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="10">
         <v>45084</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="10">
         <v>45092</v>
       </c>
-      <c r="F7" s="18">
-        <v>0</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>8</v>
+      <c r="F7" s="5">
+        <v>20</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="10">
         <v>45093</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="10">
         <v>45103</v>
       </c>
-      <c r="F8" s="18">
-        <v>0</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>8</v>
+      <c r="F8" s="5">
+        <v>20</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="17">
+        <v>45139</v>
+      </c>
+      <c r="E9" s="17">
+        <v>45145</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>

--- a/Gerencia/Processos (tabela)/Analise de desempenho.xlsx
+++ b/Gerencia/Processos (tabela)/Analise de desempenho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\Games\Mobile\The Last Tool\Gerencia\Processos (tabela)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930683DE-FA5F-4A0A-BB5E-7B1ECFB9DBF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88270A76-6497-46D2-BED6-58403F3C5434}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025" xr2:uid="{07EEF603-66A0-44F7-989B-6BF444A88DF7}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1978,7 +1978,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{321F69AA-7155-440F-B649-5D2EDDF5D249}" name="Tabela dinâmica5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{321F69AA-7155-440F-B649-5D2EDDF5D249}" name="Tabela dinâmica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="H1:J6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
@@ -2372,8 +2372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D399C0E-89D3-421D-946F-3B08A9AF2082}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2658,10 +2658,10 @@
         <v>45139</v>
       </c>
       <c r="E9" s="17">
-        <v>45145</v>
+        <v>45176</v>
       </c>
       <c r="F9" s="18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>8</v>

--- a/Gerencia/Processos (tabela)/Analise de desempenho.xlsx
+++ b/Gerencia/Processos (tabela)/Analise de desempenho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\Games\Mobile\The Last Tool\Gerencia\Processos (tabela)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88270A76-6497-46D2-BED6-58403F3C5434}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F59E9A7-DD56-47CB-8785-A66EFBA554BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025" xr2:uid="{07EEF603-66A0-44F7-989B-6BF444A88DF7}"/>
   </bookViews>
@@ -121,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,19 +145,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,11 +166,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -205,12 +193,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -247,29 +234,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutro" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2372,8 +2348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D399C0E-89D3-421D-946F-3B08A9AF2082}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2393,7 +2369,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -2423,10 +2399,10 @@
       <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2645,30 +2621,30 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="10">
         <v>45139</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="10">
         <v>45176</v>
       </c>
-      <c r="F9" s="18">
-        <v>7</v>
-      </c>
-      <c r="G9" s="18" t="s">
+      <c r="F9" s="5">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="14"/>
@@ -2677,7 +2653,7 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="14"/>
@@ -2686,7 +2662,7 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="14"/>
@@ -2695,7 +2671,7 @@
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="14"/>
@@ -2704,7 +2680,7 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="14"/>
@@ -2713,7 +2689,7 @@
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="14"/>
@@ -2722,7 +2698,7 @@
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="14"/>
@@ -2731,7 +2707,7 @@
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="14"/>
@@ -2740,7 +2716,7 @@
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="14"/>
@@ -2749,7 +2725,7 @@
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="14"/>
@@ -2758,7 +2734,7 @@
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="14"/>

--- a/Gerencia/Processos (tabela)/Analise de desempenho.xlsx
+++ b/Gerencia/Processos (tabela)/Analise de desempenho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\Games\Mobile\The Last Tool\Gerencia\Processos (tabela)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F59E9A7-DD56-47CB-8785-A66EFBA554BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A830AB37-E0F4-49A5-A39C-10A181B6390F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025" xr2:uid="{07EEF603-66A0-44F7-989B-6BF444A88DF7}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId2"/>
+    <pivotCache cacheId="3" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Pessoa</t>
   </si>
@@ -57,12 +57,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>Vitoria</t>
-  </si>
-  <si>
-    <t>Francisvan</t>
-  </si>
-  <si>
     <t>Jonny</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
     <t>Dia (Atrasos)</t>
   </si>
   <si>
-    <t>Processo 1</t>
-  </si>
-  <si>
     <t>Efeito sonoro de ataq e def, do disp da arma, e rugido do inimigo</t>
   </si>
   <si>
@@ -111,17 +102,38 @@
     <t>Terminar o roteiro completamente, Review do Enredo, Procura codificação para próxima etapa</t>
   </si>
   <si>
-    <t>Processo 2</t>
-  </si>
-  <si>
     <t>Plataforma de vida e munição, efeito sonoros de HIT e andando em piso raso</t>
+  </si>
+  <si>
+    <t>Matheus</t>
+  </si>
+  <si>
+    <t>Processo 1 (Lines 2, 3, 4)</t>
+  </si>
+  <si>
+    <t>Processo 2 (Lines 5, 6, 7)</t>
+  </si>
+  <si>
+    <t>Processo 3 (Lines 8, 9)</t>
+  </si>
+  <si>
+    <t>Processo 4 (Lines )</t>
+  </si>
+  <si>
+    <t>Montagem de cenas (tilemap), definição de coalisão de cena, ajuste de configurações, controle de animações (player e UIs)</t>
+  </si>
+  <si>
+    <t>Divisão de camadas de tilemaps, melhorar assents (player), criação de objetos de cenas</t>
+  </si>
+  <si>
+    <t>01/10/203</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,8 +161,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +185,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -193,11 +217,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -243,9 +268,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutro" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -560,19 +596,16 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'tabela (desempenho)'!$H$2:$H$6</c:f>
+              <c:f>'tabela (desempenho)'!$H$2:$H$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Jonny</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Vitoria</c:v>
+                  <c:v>Matheus</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Francisvan</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>NULL</c:v>
                 </c:pt>
               </c:strCache>
@@ -580,17 +613,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'tabela (desempenho)'!$I$2:$I$6</c:f>
+              <c:f>'tabela (desempenho)'!$I$2:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>86</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
@@ -651,19 +681,16 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'tabela (desempenho)'!$H$2:$H$6</c:f>
+              <c:f>'tabela (desempenho)'!$H$2:$H$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Jonny</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Vitoria</c:v>
+                  <c:v>Matheus</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Francisvan</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>NULL</c:v>
                 </c:pt>
               </c:strCache>
@@ -671,18 +698,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'tabela (desempenho)'!$J$2:$J$6</c:f>
+              <c:f>'tabela (desempenho)'!$J$2:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1746,20 +1770,21 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ACER" refreshedDate="45169.058026388891" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="18" xr:uid="{35E01735-018B-48D8-ADB8-F78EC2E75EF7}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ACER" refreshedDate="45200.136088657404" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="18" xr:uid="{35E01735-018B-48D8-ADB8-F78EC2E75EF7}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G19" sheet="tabela (desempenho)"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="ID" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="8"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="9"/>
     </cacheField>
     <cacheField name="Pessoa" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
+      <sharedItems containsBlank="1" count="5">
         <s v="Jonny"/>
-        <s v="Francisvan"/>
-        <s v="Vitoria"/>
+        <s v="Matheus"/>
         <m/>
+        <s v="Francisvan" u="1"/>
+        <s v="Vitoria" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Descricao do Processo" numFmtId="0">
@@ -1769,10 +1794,10 @@
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-03-19T00:00:00" maxDate="2023-08-02T00:00:00"/>
     </cacheField>
     <cacheField name="Data finalizacao" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-03-29T00:00:00" maxDate="2023-08-08T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-03-29T00:00:00" maxDate="2023-09-08T00:00:00"/>
     </cacheField>
     <cacheField name="Atraso (dia)" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="65"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="65"/>
     </cacheField>
     <cacheField name="Afirmacao" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -1808,7 +1833,7 @@
   </r>
   <r>
     <n v="3"/>
-    <x v="2"/>
+    <x v="0"/>
     <s v="Efeito sonoro do movimento"/>
     <d v="2023-03-27T00:00:00"/>
     <d v="2023-04-09T00:00:00"/>
@@ -1835,7 +1860,7 @@
   </r>
   <r>
     <n v="6"/>
-    <x v="2"/>
+    <x v="0"/>
     <s v="Efeito sonoro de ataq e def, do disp da arma, e rugido do inimigo"/>
     <d v="2023-06-07T00:00:00"/>
     <d v="2023-06-15T00:00:00"/>
@@ -1856,13 +1881,13 @@
     <x v="0"/>
     <s v="Plataforma de vida e munição, efeito sonoros de HIT e andando em piso raso"/>
     <d v="2023-08-01T00:00:00"/>
-    <d v="2023-08-07T00:00:00"/>
-    <n v="0"/>
+    <d v="2023-09-07T00:00:00"/>
+    <n v="10"/>
     <s v="N"/>
   </r>
   <r>
-    <m/>
-    <x v="3"/>
+    <n v="9"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -1871,7 +1896,7 @@
   </r>
   <r>
     <m/>
-    <x v="3"/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -1880,7 +1905,7 @@
   </r>
   <r>
     <m/>
-    <x v="3"/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -1889,7 +1914,7 @@
   </r>
   <r>
     <m/>
-    <x v="3"/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -1898,7 +1923,7 @@
   </r>
   <r>
     <m/>
-    <x v="3"/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -1907,7 +1932,7 @@
   </r>
   <r>
     <m/>
-    <x v="3"/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -1916,7 +1941,7 @@
   </r>
   <r>
     <m/>
-    <x v="3"/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -1925,7 +1950,7 @@
   </r>
   <r>
     <m/>
-    <x v="3"/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -1934,7 +1959,7 @@
   </r>
   <r>
     <m/>
-    <x v="3"/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -1943,7 +1968,7 @@
   </r>
   <r>
     <m/>
-    <x v="3"/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -1954,16 +1979,17 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{321F69AA-7155-440F-B649-5D2EDDF5D249}" name="Tabela dinâmica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="H1:J6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{321F69AA-7155-440F-B649-5D2EDDF5D249}" name="Tabela dinâmica5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="H1:J5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="5">
-        <item x="2"/>
+      <items count="6">
+        <item m="1" x="4"/>
         <item x="0"/>
+        <item m="1" x="3"/>
+        <item n="NULL" x="2"/>
         <item x="1"/>
-        <item n="NULL" x="3"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -1985,15 +2011,12 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="4">
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="3"/>
@@ -2348,8 +2371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D399C0E-89D3-421D-946F-3B08A9AF2082}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2364,7 +2387,8 @@
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" customWidth="1"/>
+    <col min="14" max="14" width="34.140625" style="2" customWidth="1"/>
     <col min="15" max="15" width="13.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2391,19 +2415,19 @@
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -2411,10 +2435,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="10">
         <v>45012</v>
@@ -2429,16 +2453,16 @@
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I2" s="12">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="J2" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O2" s="7">
         <v>17</v>
@@ -2449,10 +2473,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="10">
         <v>45012</v>
@@ -2467,19 +2491,19 @@
         <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I3" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J3" s="12">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="O3" s="7">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -2490,7 +2514,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="10">
         <v>45012</v>
@@ -2505,13 +2529,15 @@
         <v>7</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="12">
-        <v>25</v>
-      </c>
-      <c r="J4" s="12">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="N4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="7">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -2519,10 +2545,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="10">
         <v>45004</v>
@@ -2537,20 +2563,30 @@
         <v>7</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="I5" s="12">
+        <v>152</v>
+      </c>
+      <c r="J5" s="12">
+        <v>45</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="10">
         <v>45084</v>
@@ -2563,15 +2599,6 @@
       </c>
       <c r="G6" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="12">
-        <v>142</v>
-      </c>
-      <c r="J6" s="12">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -2582,7 +2609,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="10">
         <v>45084</v>
@@ -2602,10 +2629,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" s="10">
         <v>45093</v>
@@ -2625,10 +2652,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D9" s="10">
         <v>45139</v>
@@ -2640,26 +2667,54 @@
         <v>10</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="21">
+        <v>45200</v>
+      </c>
+      <c r="E10" s="21">
+        <v>45225</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="A11" s="19">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="21">
+        <v>45214</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
